--- a/transit lab/contactless fare payment/preimplementationSurvey/PreImplementationSurveyProgress.xlsx
+++ b/transit lab/contactless fare payment/preimplementationSurvey/PreImplementationSurveyProgress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdebruin/Desktop/transit lab/contactless fare payment/preimplementationSurvey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdebruin/Desktop/transit-lab/transit lab/contactless fare payment/preimplementationSurvey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47352D7A-A5B6-0E4D-B87E-913AD10E7908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705972BC-2F89-464E-B763-0855FF1AA6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21860" yWindow="500" windowWidth="11740" windowHeight="13820" xr2:uid="{A1323AED-712D-624A-8A4C-700C6DA66A4E}"/>
+    <workbookView xWindow="6140" yWindow="2840" windowWidth="11740" windowHeight="13820" xr2:uid="{A1323AED-712D-624A-8A4C-700C6DA66A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,12 +263,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -586,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C4331F-467B-2541-B3EB-505A08974C2B}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,13 +595,13 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1015,7 +1014,7 @@
       <c r="O7">
         <v>115</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" t="s">
         <v>58</v>
       </c>
       <c r="Q7">
